--- a/src/test/java/Test/dataFiles/RandstadPL.xlsx
+++ b/src/test/java/Test/dataFiles/RandstadPL.xlsx
@@ -195,7 +195,7 @@
     <t>https://www.randstad.pl/dla-pracodawcy/blog-hr/?_ga=2.261865796.812907499.1617030785-748751982.1615311411</t>
   </si>
   <si>
-    <t>blog or log</t>
+    <t>blog</t>
   </si>
 </sst>
 </file>
